--- a/Plan/Schedule_Plan_V0.1.xlsx
+++ b/Plan/Schedule_Plan_V0.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CapgeminiTraining\Sprint\SprintTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CapgeminiTraining\Sprint\documents\Sprint_Group5_IAS\IAS_Group5\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569D4672-AC28-4080-89FC-640353078A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DF0046-D854-40CB-8631-982E1749D6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,7 +140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -148,7 +148,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -472,7 +471,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -505,16 +504,16 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>44876</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>44877</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>44877</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>44878</v>
       </c>
     </row>
@@ -522,16 +521,16 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>44876</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>44878</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>44877</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>44879</v>
       </c>
     </row>
@@ -539,79 +538,103 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>44883</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>44886</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="3">
+        <v>44885</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44888</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>44885</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>44886</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="3">
+        <v>44885</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44886</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>44886</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>44888</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="3">
+        <v>44886</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44888</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>44885</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>44886</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="3">
+        <v>44885</v>
+      </c>
+      <c r="E7" s="3">
+        <v>44886</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>44886</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>44888</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="3">
+        <v>44886</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44888</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4">
-        <v>44890</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44890</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="3">
+        <v>44889</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44889</v>
+      </c>
+      <c r="D9" s="3">
+        <v>373607</v>
+      </c>
+      <c r="E9" s="3">
+        <v>373607</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -619,6 +642,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E994D06A02A36E468BD8F9A71075EA01" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5683ecea33edf60c7cd7987e3442c5f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6a5c42f6-e3c9-44a7-b48b-1dbc000a7fa3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3f1a97746312bd16ee844e4aef29519" ns2:_="">
     <xsd:import namespace="6a5c42f6-e3c9-44a7-b48b-1dbc000a7fa3"/>
@@ -802,22 +840,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE18EF17-2054-47D8-BF86-187761025201}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DD5ECF-BDC1-47FC-86F7-8061971B0019}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{065F03C7-BEE3-4F71-867A-0D5A69A205FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -833,21 +873,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DD5ECF-BDC1-47FC-86F7-8061971B0019}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE18EF17-2054-47D8-BF86-187761025201}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>